--- a/신입기수 교육세션 - RAG AGENT 과제 명세서.xlsx
+++ b/신입기수 교육세션 - RAG AGENT 과제 명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ansiyeon/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD353E6-5F34-2C41-95BA-7ECD4F4FEEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAD518C-B7E8-2143-A342-C3808DD1FD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="18620" windowHeight="16360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_(YBIGTA) 프로젝트_기능명세서" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="110">
   <si>
     <t>전체 파이프라인</t>
   </si>
@@ -100,10 +100,6 @@
     <t>데이터 구축</t>
   </si>
   <si>
-    <t>박준서</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/Berry-mas/YBIGTA_newbie_team_project</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -5579,6 +5575,14 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 기반 챗봇 구현</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>박준서, 이지민, 안시연</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -6073,39 +6077,62 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6115,15 +6142,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6131,30 +6149,16 @@
     <xf numFmtId="0" fontId="24" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -6178,22 +6182,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>220869</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>110435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>128840</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>19576</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
+        <xdr:cNvPr id="6" name="그림 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1144E9CB-AC89-7694-1A55-B2A6C56351E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FA67871-783B-B6EA-D161-0E5772FC03FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6209,8 +6213,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1206500" y="8191500"/>
-          <a:ext cx="6997700" cy="6997700"/>
+          <a:off x="1325217" y="7748841"/>
+          <a:ext cx="7435942" cy="8026097"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6425,8 +6429,8 @@
   </sheetPr>
   <dimension ref="A1:Z981"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="69" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -6470,16 +6474,16 @@
     </row>
     <row r="2" spans="1:26" ht="19">
       <c r="A2" s="1"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="65"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -6500,16 +6504,18 @@
     </row>
     <row r="3" spans="1:26" ht="13">
       <c r="A3" s="1"/>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
+      <c r="C3" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="52"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -6530,14 +6536,14 @@
     </row>
     <row r="4" spans="1:26" ht="13">
       <c r="A4" s="1"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="54"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -6561,15 +6567,15 @@
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="45" t="s">
-        <v>26</v>
+      <c r="C5" s="76" t="s">
+        <v>109</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="65"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -6596,14 +6602,14 @@
       <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="46" t="s">
-        <v>27</v>
+      <c r="D6" s="77" t="s">
+        <v>26</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="65"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -6624,20 +6630,20 @@
     </row>
     <row r="7" spans="1:26" ht="15">
       <c r="A7" s="1"/>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="62" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="48" t="s">
-        <v>28</v>
+      <c r="D7" s="63" t="s">
+        <v>27</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="36"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="65"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -6658,18 +6664,18 @@
     </row>
     <row r="8" spans="1:26" ht="14">
       <c r="A8" s="1"/>
-      <c r="B8" s="47"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="49" t="s">
-        <v>29</v>
+      <c r="D8" s="66" t="s">
+        <v>28</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="65"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -6690,22 +6696,22 @@
     </row>
     <row r="9" spans="1:26" ht="13">
       <c r="A9" s="1"/>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="53" t="s">
+      <c r="E9" s="52"/>
+      <c r="F9" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="41"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="52"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -6725,18 +6731,18 @@
     </row>
     <row r="10" spans="1:26" ht="15">
       <c r="A10" s="1"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="54" t="s">
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="44"/>
+      <c r="F10" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="41"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="52"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -6757,18 +6763,18 @@
     </row>
     <row r="11" spans="1:26" ht="15">
       <c r="A11" s="1"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="56" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="60"/>
+      <c r="F11" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="60"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="42"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -6789,18 +6795,18 @@
     </row>
     <row r="12" spans="1:26" ht="15">
       <c r="A12" s="1"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="56" t="s">
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="60"/>
+      <c r="F12" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="60"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="42"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -6821,18 +6827,18 @@
     </row>
     <row r="13" spans="1:26" ht="15">
       <c r="A13" s="1"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="57" t="s">
+      <c r="B13" s="48"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="60"/>
+      <c r="F13" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="57"/>
-      <c r="F13" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="60"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="42"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -6853,20 +6859,20 @@
     </row>
     <row r="14" spans="1:26" ht="15">
       <c r="A14" s="1"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="63" t="s">
-        <v>51</v>
+      <c r="B14" s="48"/>
+      <c r="C14" s="73" t="s">
+        <v>50</v>
       </c>
-      <c r="D14" s="56" t="s">
-        <v>40</v>
+      <c r="D14" s="59" t="s">
+        <v>39</v>
       </c>
-      <c r="E14" s="57"/>
-      <c r="F14" s="65" t="s">
-        <v>42</v>
+      <c r="E14" s="60"/>
+      <c r="F14" s="34" t="s">
+        <v>41</v>
       </c>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="60"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="42"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -6887,18 +6893,18 @@
     </row>
     <row r="15" spans="1:26" ht="15">
       <c r="A15" s="1"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="56" t="s">
-        <v>41</v>
+      <c r="B15" s="48"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="59" t="s">
+        <v>40</v>
       </c>
-      <c r="E15" s="57"/>
-      <c r="F15" s="65" t="s">
-        <v>39</v>
+      <c r="E15" s="60"/>
+      <c r="F15" s="34" t="s">
+        <v>38</v>
       </c>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="60"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="42"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -6919,18 +6925,18 @@
     </row>
     <row r="16" spans="1:26" ht="15">
       <c r="A16" s="1"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="56" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="60"/>
+      <c r="F16" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="60"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="42"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -6951,18 +6957,18 @@
     </row>
     <row r="17" spans="1:26" ht="15">
       <c r="A17" s="1"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="56" t="s">
+      <c r="B17" s="48"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="60"/>
+      <c r="F17" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="60"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="42"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -6983,18 +6989,18 @@
     </row>
     <row r="18" spans="1:26" ht="15">
       <c r="A18" s="1"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="56" t="s">
+      <c r="B18" s="48"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="60"/>
+      <c r="F18" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="57"/>
-      <c r="F18" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="60"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="42"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -7015,18 +7021,18 @@
     </row>
     <row r="19" spans="1:26" ht="15">
       <c r="A19" s="1"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="56" t="s">
+      <c r="B19" s="48"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="60"/>
+      <c r="F19" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="57"/>
-      <c r="F19" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="60"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="42"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -7047,16 +7053,16 @@
     </row>
     <row r="20" spans="1:26" ht="18">
       <c r="A20" s="1"/>
-      <c r="B20" s="66" t="s">
-        <v>30</v>
+      <c r="B20" s="57" t="s">
+        <v>29</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="60"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="42"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -7077,10 +7083,10 @@
     </row>
     <row r="21" spans="1:26" ht="15">
       <c r="A21" s="1"/>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="49" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -7090,7 +7096,7 @@
         <v>10</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>11</v>
@@ -7121,22 +7127,22 @@
     </row>
     <row r="22" spans="1:26" ht="15">
       <c r="A22" s="1"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="9">
         <v>1</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="1"/>
@@ -7159,22 +7165,22 @@
     </row>
     <row r="23" spans="1:26" ht="15">
       <c r="A23" s="1"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
       <c r="D23" s="11">
         <v>2</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I23" s="12"/>
       <c r="J23" s="1"/>
@@ -7197,19 +7203,19 @@
     </row>
     <row r="24" spans="1:26" ht="15">
       <c r="A24" s="1"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
       <c r="D24" s="11">
         <v>3</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H24" t="s">
         <v>12</v>
@@ -7237,22 +7243,22 @@
     </row>
     <row r="25" spans="1:26" ht="15">
       <c r="A25" s="1"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="38"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="13">
         <v>4</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I25" s="14"/>
       <c r="J25" s="1"/>
@@ -7275,8 +7281,8 @@
     </row>
     <row r="26" spans="1:26" ht="13">
       <c r="A26" s="1"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="51" t="s">
+      <c r="B26" s="48"/>
+      <c r="C26" s="49" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -7317,22 +7323,22 @@
     </row>
     <row r="27" spans="1:26" ht="15">
       <c r="A27" s="1"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
       <c r="D27" s="9">
         <v>1</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="1"/>
@@ -7355,22 +7361,22 @@
     </row>
     <row r="28" spans="1:26" ht="15">
       <c r="A28" s="1"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
       <c r="D28" s="11">
         <v>2</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="1"/>
@@ -7393,22 +7399,22 @@
     </row>
     <row r="29" spans="1:26" ht="15">
       <c r="A29" s="1"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
       <c r="D29" s="11">
         <v>3</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="1"/>
@@ -7431,22 +7437,22 @@
     </row>
     <row r="30" spans="1:26" ht="15">
       <c r="A30" s="1"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
       <c r="D30" s="11">
         <v>4</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I30" s="31"/>
       <c r="J30" s="1"/>
@@ -7469,22 +7475,22 @@
     </row>
     <row r="31" spans="1:26" ht="15">
       <c r="A31" s="1"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
       <c r="D31" s="11">
         <v>5</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -7506,22 +7512,22 @@
     </row>
     <row r="32" spans="1:26" ht="15">
       <c r="A32" s="1"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
       <c r="D32" s="11">
         <v>6</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="1"/>
@@ -7544,22 +7550,22 @@
     </row>
     <row r="33" spans="1:26" ht="15">
       <c r="A33" s="1"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
       <c r="D33" s="11">
         <v>7</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I33" s="12"/>
       <c r="J33" s="1"/>
@@ -7582,22 +7588,22 @@
     </row>
     <row r="34" spans="1:26" ht="15">
       <c r="A34" s="1"/>
-      <c r="B34" s="69" t="s">
+      <c r="B34" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="41"/>
-      <c r="D34" s="70" t="s">
-        <v>71</v>
+      <c r="C34" s="52"/>
+      <c r="D34" s="55" t="s">
+        <v>70</v>
       </c>
-      <c r="E34" s="60"/>
+      <c r="E34" s="42"/>
       <c r="F34" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="72" t="s">
+      <c r="G34" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="H34" s="72"/>
-      <c r="I34" s="60"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="42"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -7618,19 +7624,19 @@
     </row>
     <row r="35" spans="1:26" ht="16">
       <c r="A35" s="1"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="73" t="s">
-        <v>92</v>
+      <c r="B35" s="37"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="43" t="s">
+        <v>91</v>
       </c>
-      <c r="E35" s="40"/>
+      <c r="E35" s="44"/>
       <c r="F35" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
-      <c r="G35" s="74" t="s">
-        <v>102</v>
+      <c r="G35" s="45" t="s">
+        <v>101</v>
       </c>
-      <c r="H35" s="40"/>
+      <c r="H35" s="44"/>
       <c r="I35" s="16"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -7652,19 +7658,19 @@
     </row>
     <row r="36" spans="1:26" ht="16">
       <c r="A36" s="1"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="75" t="s">
-        <v>94</v>
+      <c r="B36" s="37"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="36" t="s">
+        <v>93</v>
       </c>
-      <c r="E36" s="64"/>
+      <c r="E36" s="37"/>
       <c r="F36" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
-      <c r="G36" s="68" t="s">
-        <v>104</v>
+      <c r="G36" s="46" t="s">
+        <v>103</v>
       </c>
-      <c r="H36" s="59"/>
+      <c r="H36" s="35"/>
       <c r="I36" s="17"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -7686,19 +7692,19 @@
     </row>
     <row r="37" spans="1:26" ht="16">
       <c r="A37" s="1"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="71" t="s">
-        <v>93</v>
+      <c r="B37" s="37"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="56" t="s">
+        <v>92</v>
       </c>
-      <c r="E37" s="64"/>
+      <c r="E37" s="37"/>
       <c r="F37" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
-      <c r="G37" s="65" t="s">
-        <v>105</v>
+      <c r="G37" s="34" t="s">
+        <v>104</v>
       </c>
-      <c r="H37" s="59"/>
+      <c r="H37" s="35"/>
       <c r="I37" s="17"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -7720,19 +7726,19 @@
     </row>
     <row r="38" spans="1:26" ht="16">
       <c r="A38" s="1"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="75" t="s">
-        <v>95</v>
+      <c r="B38" s="37"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="36" t="s">
+        <v>94</v>
       </c>
-      <c r="E38" s="64"/>
+      <c r="E38" s="37"/>
       <c r="F38" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
-      <c r="G38" s="65" t="s">
-        <v>106</v>
+      <c r="G38" s="34" t="s">
+        <v>105</v>
       </c>
-      <c r="H38" s="59"/>
+      <c r="H38" s="35"/>
       <c r="I38" s="17"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -7754,19 +7760,19 @@
     </row>
     <row r="39" spans="1:26" ht="16">
       <c r="A39" s="1"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="76" t="s">
-        <v>96</v>
+      <c r="B39" s="53"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="38" t="s">
+        <v>95</v>
       </c>
-      <c r="E39" s="43"/>
+      <c r="E39" s="39"/>
       <c r="F39" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
-      <c r="G39" s="77" t="s">
-        <v>107</v>
+      <c r="G39" s="40" t="s">
+        <v>106</v>
       </c>
-      <c r="H39" s="43"/>
+      <c r="H39" s="39"/>
       <c r="I39" s="18"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -8691,7 +8697,7 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -34166,35 +34172,11 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B21:B33"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="B34:C39"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="D6:I6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="D8:I8"/>
@@ -34211,11 +34193,35 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="C14:C19"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="B21:B33"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="B34:C39"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="G39:H39"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
